--- a/downloads/sap_eo_data.xlsx
+++ b/downloads/sap_eo_data.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="sap_eo_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="x2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +18,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,99 +414,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>eo_code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>eo_description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>be_code</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>teh_mesto</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gar_no</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>head_type</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>eo_model_id</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>eo_model_name</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>eo_class_code</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>eo_class_description</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>operation_start_date</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>expected_operation_finish_date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>test_added_record</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/downloads/sap_eo_data.xlsx
+++ b/downloads/sap_eo_data.xlsx
@@ -18,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +46,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,14 +426,233 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>eo_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>eo_description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>be_code</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>teh_mesto</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>head_type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>eo_model_id</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>eo_model_name</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>eo_class_code</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>eo_class_description</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>operation_start_date</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>expected_operation_finish_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>100000061885</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>100000061900</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>не присвоен</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>неизвестно</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>не присвоен</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>неизвестно</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>не присвоен</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>неизвестно</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>не присвоен</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>неизвестно</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>не присвоен</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>неизвестно</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>не присвоен</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>неизвестно</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>100000099778</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>100000099779</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>100000099781</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>100000099784</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>не присвоен</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/downloads/sap_eo_data.xlsx
+++ b/downloads/sap_eo_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,24 +499,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100000061885</t>
+          <t>не присвоен</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>неизвестно</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>100000061900</t>
+          <t>не присвоен</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>неизвестно</t>
         </is>
       </c>
     </row>
@@ -575,78 +575,6 @@
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>неизвестно</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>не присвоен</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>неизвестно</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>100000099778</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>100000099779</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>100000099781</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>100000099784</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>не присвоен</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>33</t>
         </is>

--- a/downloads/sap_eo_data.xlsx
+++ b/downloads/sap_eo_data.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -507,6 +511,9 @@
           <t>неизвестно</t>
         </is>
       </c>
+      <c r="K2" s="3" t="n">
+        <v>43661</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -519,6 +526,9 @@
           <t>неизвестно</t>
         </is>
       </c>
+      <c r="K3" s="3" t="n">
+        <v>43661</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -531,6 +541,9 @@
           <t>неизвестно</t>
         </is>
       </c>
+      <c r="K4" s="3" t="n">
+        <v>43661</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -543,6 +556,9 @@
           <t>неизвестно</t>
         </is>
       </c>
+      <c r="K5" s="3" t="n">
+        <v>43661</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -555,6 +571,9 @@
           <t>неизвестно</t>
         </is>
       </c>
+      <c r="K6" s="3" t="n">
+        <v>43661</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -567,6 +586,9 @@
           <t>неизвестно</t>
         </is>
       </c>
+      <c r="K7" s="3" t="n">
+        <v>43661</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -578,6 +600,9 @@
         <is>
           <t>33</t>
         </is>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>42794</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/sap_eo_data.xlsx
+++ b/downloads/sap_eo_data.xlsx
@@ -17,9 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,13 +56,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,106 +499,8 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>не присвоен</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>неизвестно</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>43661</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>не присвоен</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>неизвестно</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>43661</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>не присвоен</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>неизвестно</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>43661</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>не присвоен</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>неизвестно</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>43661</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>не присвоен</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>неизвестно</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>43661</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>не присвоен</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>неизвестно</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>43661</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>не присвоен</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>42794</v>
+          <t>новый номер</t>
+        </is>
       </c>
     </row>
   </sheetData>
